--- a/biology/Zoologie/Dipoena_santacatarinae/Dipoena_santacatarinae.xlsx
+++ b/biology/Zoologie/Dipoena_santacatarinae/Dipoena_santacatarinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipoena santacatarinae est une espèce d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipoena santacatarinae est une espèce d'araignées aranéomorphes de la famille des Theridiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre dans les États du Rio Grande do Sul, de Santa Catarina, du Paraná, de São Paulo, de Rio de Janeiro et du Minas Gerais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États du Rio Grande do Sul, de Santa Catarina, du Paraná, de São Paulo, de Rio de Janeiro et du Minas Gerais.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,3 mm et la femelle paratype 1,7 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,3 mm et la femelle paratype 1,7 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, l'État de Santa Catarina.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Levi, 1963 : American spiders of the genera Audifia, Euryopis and Dipoena (Araneae: Theridiidae). Bulletin of the Museum of Comparative Zoology, vol. 129, no 2, p. 121-185 (texte intégral).</t>
         </is>
